--- a/Excel和PDM互转/ExcelTemplate.xlsx
+++ b/Excel和PDM互转/ExcelTemplate.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bshf-lyy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myjob\mynotes\myExperience\Excel和PDM互转\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185"/>
   </bookViews>
   <sheets>
-    <sheet name="PhysicalDataModel_4" sheetId="2" r:id="rId1"/>
+    <sheet name="ExcelTemplate" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhysicalDataModel_4!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ExcelTemplate!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>主题域</t>
   </si>
@@ -61,6 +61,213 @@
   </si>
   <si>
     <t>默认值</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>管理者-角色表</t>
+  </si>
+  <si>
+    <t>gl_staff_role</t>
+  </si>
+  <si>
+    <t>管理者-角色</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>员工ID</t>
+  </si>
+  <si>
+    <t>员工id</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>角色id</t>
+  </si>
+  <si>
+    <t>角色-权限表</t>
+  </si>
+  <si>
+    <t>gl_role_func_purview</t>
+  </si>
+  <si>
+    <t>角色-功能权限</t>
+  </si>
+  <si>
+    <t>func_id</t>
+  </si>
+  <si>
+    <t>功能权限ID</t>
+  </si>
+  <si>
+    <t>功能权限</t>
+  </si>
+  <si>
+    <t>权限表</t>
+  </si>
+  <si>
+    <t>gl_func_purview</t>
+  </si>
+  <si>
+    <t>int(20)</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>1-一级菜单  2-二级菜单 3-按钮</t>
+  </si>
+  <si>
+    <t>order_num</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>funcpath</t>
+  </si>
+  <si>
+    <t>拦截权限路径</t>
+  </si>
+  <si>
+    <t>varbinary(200)</t>
+  </si>
+  <si>
+    <t>is_use</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>int(1)</t>
+  </si>
+  <si>
+    <t>操作日志表</t>
+  </si>
+  <si>
+    <t>gl_manage_log</t>
+  </si>
+  <si>
+    <t>operator_id</t>
+  </si>
+  <si>
+    <t>操作人ID</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>操作人名字</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>operator_mobile</t>
+  </si>
+  <si>
+    <t>操作人电话</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>一级菜单</t>
+  </si>
+  <si>
+    <t>sub_menu</t>
+  </si>
+  <si>
+    <t>二级菜单</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>操作内容</t>
+  </si>
+  <si>
+    <t>client_ip</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -113,12 +320,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,14 +349,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,22 +642,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
@@ -472,6 +697,773 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
